--- a/xlsx/沙律_intext.xlsx
+++ b/xlsx/沙律_intext.xlsx
@@ -29,7 +29,7 @@
     <t>色拉寺</t>
   </si>
   <si>
-    <t>政策_政策_美國_沙律</t>
+    <t>政策_政策_美国_沙律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%A4%E8%AF%AD</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%AE%AE</t>
   </si>
   <si>
-    <t>海鮮</t>
+    <t>海鲜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E9%BB%83%E9%86%AC</t>
   </si>
   <si>
-    <t>蛋黃醬</t>
+    <t>蛋黄酱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%98%8E%E6%B2%BB</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sm%C3%B8rrebr%C3%B8d</t>
@@ -95,61 +95,61 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9C%8B</t>
   </si>
   <si>
-    <t>俄國</t>
+    <t>俄国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AA%9E</t>
   </si>
   <si>
-    <t>拉丁語</t>
+    <t>拉丁语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>古羅馬</t>
+    <t>古罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BD%E6%B0%B4</t>
   </si>
   <si>
-    <t>鹽水</t>
+    <t>盐水</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>中世紀</t>
+    <t>中世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬帝國</t>
+    <t>罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%B5%E8%8B%A3</t>
   </si>
   <si>
-    <t>萵苣</t>
+    <t>莴苣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E5%85%AC%E8%8B%B1</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E7%93%9C</t>
   </si>
   <si>
-    <t>黃瓜</t>
+    <t>黄瓜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E6%A4%92</t>
@@ -197,25 +197,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%94%A5</t>
   </si>
   <si>
-    <t>蔥</t>
+    <t>葱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%94%A5</t>
   </si>
   <si>
-    <t>大蔥</t>
+    <t>大葱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E8%98%BF%E8%94%94</t>
   </si>
   <si>
-    <t>胡蘿蔔</t>
+    <t>胡萝卜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%BF%E8%94%94</t>
   </si>
   <si>
-    <t>蘿蔔</t>
+    <t>萝卜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%AA%E6%A2%A8</t>
@@ -227,19 +227,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%B5%E5%9C%98</t>
   </si>
   <si>
-    <t>麵團</t>
+    <t>面团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%AC%96_(%E6%9C%A8%E6%A8%A8%E7%A7%91)</t>
   </si>
   <si>
-    <t>橄欖 (木樨科)</t>
+    <t>橄榄 (木樨科)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%88%B4%E8%96%AF</t>
   </si>
   <si>
-    <t>馬鈴薯</t>
+    <t>马铃薯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%BB</t>
@@ -251,13 +251,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%99%E8%82%89</t>
   </si>
   <si>
-    <t>煙肉</t>
+    <t>烟肉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%9E</t>
   </si>
   <si>
-    <t>雞</t>
+    <t>鸡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B3%E9%85%AA</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AE%AA%E9%AD%9A</t>
   </si>
   <si>
-    <t>鮪魚</t>
+    <t>鲔鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%92%92%E6%B2%99%E6%8B%89</t>
   </si>
   <si>
-    <t>凱撒沙拉</t>
+    <t>凯撒沙拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%92%9C</t>
@@ -293,19 +293,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E6%B2%99%E6%8B%89</t>
   </si>
   <si>
-    <t>希臘沙拉</t>
+    <t>希腊沙拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E5%B3%B6%E9%86%AC</t>
   </si>
   <si>
-    <t>千島醬</t>
+    <t>千岛酱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%AC%96%E6%B2%B9</t>
   </si>
   <si>
-    <t>橄欖油</t>
+    <t>橄榄油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%8B</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%95%8E%E9%BA%A5%E9%BA%B5</t>
   </si>
   <si>
-    <t>蕎麥麵</t>
+    <t>荞麦面</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%9E%9C</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E6%A1%83</t>
   </si>
   <si>
-    <t>楊桃</t>
+    <t>杨桃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E8%95%89</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E7%95%B0%E6%9E%9C</t>
   </si>
   <si>
-    <t>奇異果</t>
+    <t>奇异果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E7%93%9C</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%A0%E8%98%BF</t>
   </si>
   <si>
-    <t>菠蘿</t>
+    <t>菠萝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%A6%B4</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%92%BE</t>
   </si>
   <si>
-    <t>老撾</t>
+    <t>老挝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%96%99</t>
@@ -395,19 +395,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AA%B8%E6%AA%AC%E6%B1%81</t>
   </si>
   <si>
-    <t>檸檬汁</t>
+    <t>柠檬汁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%88%B4%E8%96%AF%E6%B2%99%E6%8B%89</t>
   </si>
   <si>
-    <t>馬鈴薯沙拉</t>
+    <t>马铃薯沙拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%AA%E6%9C%A8%E7%93%9C</t>
@@ -419,13 +419,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%BA%A5</t>
   </si>
   <si>
-    <t>小麥</t>
+    <t>小麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E8%8A%B9</t>
   </si>
   <si>
-    <t>荷蘭芹</t>
+    <t>荷兰芹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B9</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C</t>
   </si>
   <si>
-    <t>蘋果</t>
+    <t>苹果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B9%E8%8F%9C</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E5%BF%83%E6%9E%9C</t>
   </si>
   <si>
-    <t>開心果</t>
+    <t>开心果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E4%B8%81</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
